--- a/COVID19 PT.xlsx
+++ b/COVID19 PT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miami\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944EB1AA-AC1C-4700-83C3-F54E281E1F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009639DF-E74A-4BCC-86F8-54851798F061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="8" xr2:uid="{690E66F5-A47F-45E5-A75B-442D4617D3F3}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="9" xr2:uid="{690E66F5-A47F-45E5-A75B-442D4617D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="FCT DNC 28" sheetId="13" r:id="rId7"/>
     <sheet name="Evolution" sheetId="7" r:id="rId8"/>
     <sheet name="RoG" sheetId="18" r:id="rId9"/>
+    <sheet name="Share AS" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +258,9 @@
   </si>
   <si>
     <t>Weekday % DNV</t>
+  </si>
+  <si>
+    <t>AN % AS</t>
   </si>
 </sst>
 </file>
@@ -692,7 +696,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -9666,6 +9712,1027 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Share % of AS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (AC, AL &amp; AN)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC % AS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yy;@</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$AA$2:$AA$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3529411764705882E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9603960396039604E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1224489795918366E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.18232044198895E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10676156583629894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11504424778761062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12526539278131635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12244897959183673</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5626911314984705E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9178403755868547E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10788199031263761</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11382393397524071</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11116625310173697</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12670219064535229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12951658142220757</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13191929643041903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12989648873553886</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13583496052296459</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.150650870264736</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1526431433372108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14157409595840226</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15923080379206542</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.16782666823955014</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15784331684679734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2478-4672-B213-1EA7FF9603CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AL % AS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yy;@</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$AG$2:$AG$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16574585635359115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20982142857142858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.199288256227758</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19764011799410031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17622080679405519</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2087912087912088</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13149847094801223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3943661971830985E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12373403786878027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12861072902338377</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0148883374689825E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9271758436944941E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0514766540174892E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10993274702534919</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10746904810229349</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7801171576534507E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.10253034956852421</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11522553961483779</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5206806901441742E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.9589791975558247E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15709173842947582</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1507602124931306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2478-4672-B213-1EA7FF9603CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN % AS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yy;@</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$AH$2:$AH$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76882430647291944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75756533700137552</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80868486352357316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80402605091770274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78996865203761757</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75814795654423173</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76263446316216765</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76636386790050093</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74681878016673975</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73213131704795142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78321909714015603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7511344745473334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.67508159333097406</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69139647066007204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2478-4672-B213-1EA7FF9603CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="411205248"/>
+        <c:axId val="405728960"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="411205248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405728960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="405728960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411205248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9907,6 +10974,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13545,6 +14652,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13591,15 +15203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13833,95 +15445,141 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AB1C0B-F9B8-4988-9F07-AC2803F63C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B74BB9A-8C89-49AE-8A26-574C17DED61A}" name="Data" displayName="Data" ref="A1:AM35" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
-  <autoFilter ref="A1:AM35" xr:uid="{4B85C8C0-D087-4D48-9E65-AF70C439B36D}"/>
-  <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{537F76B1-0773-408D-AD11-67AD04BFF52D}" name="Date" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{0008A3F2-641C-4618-8519-1BB2BB8CD8F1}" name="AS (Acc. Suspects)" dataDxfId="59"/>
-    <tableColumn id="33" xr3:uid="{B1F41BDB-6F83-45BD-886D-945164699B24}" name="AC (Acc. Confirmed)" dataDxfId="58"/>
-    <tableColumn id="35" xr3:uid="{D8AF82E6-615D-4268-9F5D-45734AB5BB49}" name="AR (Acc. Recovered)" dataDxfId="57"/>
-    <tableColumn id="34" xr3:uid="{27A2DFCD-0B9B-4F48-B9EF-2777BE72D531}" name="AD (Acc. Deaths)" dataDxfId="56"/>
-    <tableColumn id="39" xr3:uid="{A6FE9DB6-7EF5-4D96-B970-1E4084DE08C6}" name="AN (Acc. Negatives)" dataDxfId="55"/>
-    <tableColumn id="38" xr3:uid="{F3572767-B889-4E30-A84E-C02E3F871279}" name="AH (Acc. Hospital)" dataDxfId="54"/>
-    <tableColumn id="40" xr3:uid="{904CA045-71CF-4120-9C54-29CFD3B51156}" name="AI (Acc. ICU)" dataDxfId="53"/>
-    <tableColumn id="37" xr3:uid="{1713B47D-516C-43E5-BB78-70FCE1C56DFC}" name="AL (Acc. Pending Lab)" dataDxfId="52"/>
-    <tableColumn id="36" xr3:uid="{14A03D4F-82FF-430E-B0F4-6CB3B0E8AFA8}" name="AV (Acc. Surveillance)" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{B05831DB-9EFA-484C-8251-3E968EF874D8}" name="DNS (Daily New Suspects)" dataDxfId="50"/>
-    <tableColumn id="44" xr3:uid="{77353AAF-2FDA-4BBD-8786-4C210674B1BF}" name="DNC (Daily New Confirmed)" dataDxfId="49"/>
-    <tableColumn id="45" xr3:uid="{C6181719-CC5E-4E1A-AC6B-2A5D74E2B3E8}" name="DNR (Daily New Recovered)" dataDxfId="48"/>
-    <tableColumn id="46" xr3:uid="{51A594EE-5359-44DA-B689-56648C363749}" name="DND (Daily New Deaths)" dataDxfId="47"/>
-    <tableColumn id="47" xr3:uid="{B7648E74-EBC4-484E-88B3-0045CEEB410F}" name="DNN (Daily New Negatives)" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B74BB9A-8C89-49AE-8A26-574C17DED61A}" name="Data" displayName="Data" ref="A1:AN35" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+  <autoFilter ref="A1:AN35" xr:uid="{4B85C8C0-D087-4D48-9E65-AF70C439B36D}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{537F76B1-0773-408D-AD11-67AD04BFF52D}" name="Date" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{0008A3F2-641C-4618-8519-1BB2BB8CD8F1}" name="AS (Acc. Suspects)" dataDxfId="60"/>
+    <tableColumn id="33" xr3:uid="{B1F41BDB-6F83-45BD-886D-945164699B24}" name="AC (Acc. Confirmed)" dataDxfId="59"/>
+    <tableColumn id="35" xr3:uid="{D8AF82E6-615D-4268-9F5D-45734AB5BB49}" name="AR (Acc. Recovered)" dataDxfId="58"/>
+    <tableColumn id="34" xr3:uid="{27A2DFCD-0B9B-4F48-B9EF-2777BE72D531}" name="AD (Acc. Deaths)" dataDxfId="57"/>
+    <tableColumn id="39" xr3:uid="{A6FE9DB6-7EF5-4D96-B970-1E4084DE08C6}" name="AN (Acc. Negatives)" dataDxfId="56"/>
+    <tableColumn id="38" xr3:uid="{F3572767-B889-4E30-A84E-C02E3F871279}" name="AH (Acc. Hospital)" dataDxfId="55"/>
+    <tableColumn id="40" xr3:uid="{904CA045-71CF-4120-9C54-29CFD3B51156}" name="AI (Acc. ICU)" dataDxfId="54"/>
+    <tableColumn id="37" xr3:uid="{1713B47D-516C-43E5-BB78-70FCE1C56DFC}" name="AL (Acc. Pending Lab)" dataDxfId="53"/>
+    <tableColumn id="36" xr3:uid="{14A03D4F-82FF-430E-B0F4-6CB3B0E8AFA8}" name="AV (Acc. Surveillance)" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{B05831DB-9EFA-484C-8251-3E968EF874D8}" name="DNS (Daily New Suspects)" dataDxfId="51"/>
+    <tableColumn id="44" xr3:uid="{77353AAF-2FDA-4BBD-8786-4C210674B1BF}" name="DNC (Daily New Confirmed)" dataDxfId="50"/>
+    <tableColumn id="45" xr3:uid="{C6181719-CC5E-4E1A-AC6B-2A5D74E2B3E8}" name="DNR (Daily New Recovered)" dataDxfId="49"/>
+    <tableColumn id="46" xr3:uid="{51A594EE-5359-44DA-B689-56648C363749}" name="DND (Daily New Deaths)" dataDxfId="48"/>
+    <tableColumn id="47" xr3:uid="{B7648E74-EBC4-484E-88B3-0045CEEB410F}" name="DNN (Daily New Negatives)" dataDxfId="47">
       <calculatedColumnFormula>Data[[#This Row],[AN (Acc. Negatives)]]-F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{737786A2-9F98-4CD5-AECE-E2E2D3BADFF1}" name="DNH (Daily New Hospital)" dataDxfId="45">
+    <tableColumn id="42" xr3:uid="{737786A2-9F98-4CD5-AECE-E2E2D3BADFF1}" name="DNH (Daily New Hospital)" dataDxfId="46">
       <calculatedColumnFormula>Data[[#This Row],[AH (Acc. Hospital)]]-G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{BFCA8C58-56C5-48D8-B0D3-B4B44031A59A}" name="DNI (Daily New ICU)" dataDxfId="44">
+    <tableColumn id="43" xr3:uid="{BFCA8C58-56C5-48D8-B0D3-B4B44031A59A}" name="DNI (Daily New ICU)" dataDxfId="45">
       <calculatedColumnFormula>Data[[#This Row],[AI (Acc. ICU)]]-H1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{6CACEBF4-593A-46BC-A478-6480A9259D84}" name="DNL (Daily New Pending Lab)" dataDxfId="43">
+    <tableColumn id="48" xr3:uid="{6CACEBF4-593A-46BC-A478-6480A9259D84}" name="DNL (Daily New Pending Lab)" dataDxfId="44">
       <calculatedColumnFormula>Data[[#This Row],[AL (Acc. Pending Lab)]]-I1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{ABA14777-C6C0-4F6C-BC57-D83D38487AE9}" name="DNV (Daily New Surveillance)" dataDxfId="42">
+    <tableColumn id="41" xr3:uid="{ABA14777-C6C0-4F6C-BC57-D83D38487AE9}" name="DNV (Daily New Surveillance)" dataDxfId="43">
       <calculatedColumnFormula>Data[[#This Row],[AV (Acc. Surveillance)]]-J1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{DE0E97D8-28EF-47F0-8805-8CD1C1585AC7}" name="Active Cases" dataDxfId="41">
+    <tableColumn id="49" xr3:uid="{DE0E97D8-28EF-47F0-8805-8CD1C1585AC7}" name="Active Cases" dataDxfId="42">
       <calculatedColumnFormula>(Data[[#This Row],[AC (Acc. Confirmed)]])-(Data[[#This Row],[AR (Acc. Recovered)]]+Data[[#This Row],[AD (Acc. Deaths)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{9C475E65-DFCB-436A-AD23-8D3E4AD41443}" name="DNS / Prev AS" dataDxfId="40">
+    <tableColumn id="53" xr3:uid="{9C475E65-DFCB-436A-AD23-8D3E4AD41443}" name="DNS / Prev AS" dataDxfId="41">
       <calculatedColumnFormula>Data[[#This Row],[DNS (Daily New Suspects)]]/B1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{F83577D1-CD7F-4B76-8269-2AAC4EE28699}" name="DNC / Prev AC" dataDxfId="39">
+    <tableColumn id="50" xr3:uid="{F83577D1-CD7F-4B76-8269-2AAC4EE28699}" name="DNC / Prev AC" dataDxfId="40">
       <calculatedColumnFormula>Data[[#This Row],[DNC (Daily New Confirmed)]]/C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="56" xr3:uid="{9C72D354-7A51-4C64-8E4D-6DD3F10A82AE}" name="DNR / Prev AR" dataDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="56" xr3:uid="{9C72D354-7A51-4C64-8E4D-6DD3F10A82AE}" name="DNR / Prev AR" dataDxfId="39" dataCellStyle="Percent">
       <calculatedColumnFormula>Data[[#This Row],[DNR (Daily New Recovered)]]/D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="57" xr3:uid="{C219B621-113A-4218-B8D9-7CBAFE2631DD}" name="DND / Prev AD" dataDxfId="37" dataCellStyle="Percent">
+    <tableColumn id="57" xr3:uid="{C219B621-113A-4218-B8D9-7CBAFE2631DD}" name="DND / Prev AD" dataDxfId="38" dataCellStyle="Percent">
       <calculatedColumnFormula>Data[[#This Row],[DND (Daily New Deaths)]]/E1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="58" xr3:uid="{00EF6CA8-850A-4528-96CE-B66FA03F79D4}" name="Dif DNS vs Prev DNS" dataDxfId="36" dataCellStyle="Comma">
+    <tableColumn id="58" xr3:uid="{00EF6CA8-850A-4528-96CE-B66FA03F79D4}" name="Dif DNS vs Prev DNS" dataDxfId="37" dataCellStyle="Comma">
       <calculatedColumnFormula>Data[[#This Row],[DNS (Daily New Suspects)]]-K1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" xr3:uid="{73F5E75A-2729-485C-9F78-BC5C00CF8374}" name="Dif DNC vs Prev DNC" dataDxfId="35" dataCellStyle="Percent">
+    <tableColumn id="54" xr3:uid="{73F5E75A-2729-485C-9F78-BC5C00CF8374}" name="Dif DNC vs Prev DNC" dataDxfId="36" dataCellStyle="Percent">
       <calculatedColumnFormula>Data[[#This Row],[DNC (Daily New Confirmed)]]-L1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="60" xr3:uid="{A41CC914-5342-480D-A1C2-03187BEF256A}" name="AC % AS" dataDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="60" xr3:uid="{A41CC914-5342-480D-A1C2-03187BEF256A}" name="AC % AS" dataDxfId="35" dataCellStyle="Percent">
       <calculatedColumnFormula>Data[[#This Row],[AC (Acc. Confirmed)]]/Data[[#This Row],[AS (Acc. Suspects)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="61" xr3:uid="{33847944-B458-4C0F-84FD-F9F641CE2A31}" name="AR % AC" dataDxfId="33" dataCellStyle="Percent">
+    <tableColumn id="61" xr3:uid="{33847944-B458-4C0F-84FD-F9F641CE2A31}" name="AR % AC" dataDxfId="34" dataCellStyle="Percent">
       <calculatedColumnFormula>Data[[#This Row],[AR (Acc. Recovered)]]/Data[[#This Row],[AS (Acc. Suspects)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="55" xr3:uid="{5EE34295-D892-40E8-B845-3100DD1F58B6}" name="AD % AC" dataDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="55" xr3:uid="{5EE34295-D892-40E8-B845-3100DD1F58B6}" name="AD % AC" dataDxfId="33" dataCellStyle="Percent">
       <calculatedColumnFormula>Data[[#This Row],[AD (Acc. Deaths)]]/Data[[#This Row],[AS (Acc. Suspects)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{E97E275F-04DE-439A-8ACF-32433CE3A541}" name="AC % AN" dataDxfId="31">
+    <tableColumn id="51" xr3:uid="{E97E275F-04DE-439A-8ACF-32433CE3A541}" name="AC % AN" dataDxfId="32">
       <calculatedColumnFormula>Data[[#This Row],[AC (Acc. Confirmed)]]/Data[[#This Row],[AN (Acc. Negatives)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="66" xr3:uid="{C4A93212-B0D1-4EDC-BBB7-434A9E69C6D7}" name="AH % AC" dataDxfId="30">
+    <tableColumn id="66" xr3:uid="{C4A93212-B0D1-4EDC-BBB7-434A9E69C6D7}" name="AH % AC" dataDxfId="31">
       <calculatedColumnFormula>Data[[#This Row],[AH (Acc. Hospital)]]/Data[[#This Row],[AC (Acc. Confirmed)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="67" xr3:uid="{FF08FDE4-B4F4-4855-A23B-2D2C917DBED6}" name="AI % AH" dataDxfId="29">
+    <tableColumn id="67" xr3:uid="{FF08FDE4-B4F4-4855-A23B-2D2C917DBED6}" name="AI % AH" dataDxfId="30">
       <calculatedColumnFormula>Data[[#This Row],[AI (Acc. ICU)]]/Data[[#This Row],[AH (Acc. Hospital)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="65" xr3:uid="{05B1C735-9629-4AE5-9401-D9B2E627C503}" name="AL % AS" dataDxfId="28">
+    <tableColumn id="65" xr3:uid="{05B1C735-9629-4AE5-9401-D9B2E627C503}" name="AL % AS" dataDxfId="29">
       <calculatedColumnFormula>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{91D01986-5984-4F08-AC6D-83F70AB781EE}" name="DNC % DNS" dataDxfId="27">
+    <tableColumn id="6" xr3:uid="{4BDCE953-A35F-4789-86A5-F98C4AA344AF}" name="AN % AS" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{91D01986-5984-4F08-AC6D-83F70AB781EE}" name="DNC % DNS" dataDxfId="28">
       <calculatedColumnFormula>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="64" xr3:uid="{A40F9A6C-FD69-41C8-BF89-8A30C5CA176D}" name="DNC % DNN" dataDxfId="26">
+    <tableColumn id="64" xr3:uid="{A40F9A6C-FD69-41C8-BF89-8A30C5CA176D}" name="DNC % DNN" dataDxfId="27">
       <calculatedColumnFormula>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{0951DA88-EDD7-4580-89E9-23D53B670CAC}" name="Report ID" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{F7DAFDBF-582E-46C5-A32A-B945C74E2942}" name="Week" dataDxfId="24">
+    <tableColumn id="25" xr3:uid="{0951DA88-EDD7-4580-89E9-23D53B670CAC}" name="Report ID" dataDxfId="26"/>
+    <tableColumn id="21" xr3:uid="{F7DAFDBF-582E-46C5-A32A-B945C74E2942}" name="Week" dataDxfId="25">
       <calculatedColumnFormula>WEEKNUM(Data[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{75E95CD2-5E14-44E8-AC6C-3D702007373D}" name="Month" dataDxfId="23">
+    <tableColumn id="22" xr3:uid="{75E95CD2-5E14-44E8-AC6C-3D702007373D}" name="Month" dataDxfId="24">
       <calculatedColumnFormula>MONTH(Data[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{17EBFFFD-C3E6-4217-8A7D-0CC76F549881}" name="Weekday" dataDxfId="22">
+    <tableColumn id="23" xr3:uid="{17EBFFFD-C3E6-4217-8A7D-0CC76F549881}" name="Weekday" dataDxfId="23">
       <calculatedColumnFormula>WEEKDAY(Data[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13930,13 +15588,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE8B474E-7313-4CDA-898A-F42D1BB90707}" name="Table4" displayName="Table4" ref="A1:D66" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE8B474E-7313-4CDA-898A-F42D1BB90707}" name="Table4" displayName="Table4" ref="A1:D66" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20" dataCellStyle="Comma">
   <autoFilter ref="A1:D66" xr:uid="{F215F903-A661-4A02-88A8-B5EF1B6BD985}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FE63B76F-DE7C-4023-925A-5B0E6DE82229}" name="Timeline" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{76C9CB77-B863-4452-ACBD-78363520B942}" name="Actuals" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{3D0DE8D3-36AD-43B3-8007-CC9DC167A0C2}" name="FCT0328" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{1503E8D9-37AB-49BD-BEFE-2B53D0459014}" name="FCT0327" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{FE63B76F-DE7C-4023-925A-5B0E6DE82229}" name="Timeline" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{76C9CB77-B863-4452-ACBD-78363520B942}" name="Actuals" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{3D0DE8D3-36AD-43B3-8007-CC9DC167A0C2}" name="FCT0328" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{1503E8D9-37AB-49BD-BEFE-2B53D0459014}" name="FCT0327" dataDxfId="16" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13946,15 +15604,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D2B141E4-3E13-47A2-8341-A7D5FD70E2CF}" name="Table10" displayName="Table10" ref="A1:E66" totalsRowShown="0">
   <autoFilter ref="A1:E66" xr:uid="{D9EA3EA6-45E8-42E0-9715-75DEE5808C87}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{32815590-5F9F-4781-86BA-E237D749AADB}" name="Timeline" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{32815590-5F9F-4781-86BA-E237D749AADB}" name="Timeline" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{4FC79A25-59CB-44F5-804A-032F4DDBD6D6}" name="Values"/>
-    <tableColumn id="3" xr3:uid="{34C1C7E1-EF41-4104-8FB5-67AAA80840BF}" name="Forecast" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{34C1C7E1-EF41-4104-8FB5-67AAA80840BF}" name="Forecast" dataDxfId="14">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$33,$A$2:$A$33,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{425B71B7-6019-4334-BE7B-DFDC22BA49E9}" name="Lower Confidence Bound" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{425B71B7-6019-4334-BE7B-DFDC22BA49E9}" name="Lower Confidence Bound" dataDxfId="13">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$33,$A$2:$A$33,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5981AE1E-B24D-4B97-A76E-B02532A2B6CF}" name="Upper Confidence Bound" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{5981AE1E-B24D-4B97-A76E-B02532A2B6CF}" name="Upper Confidence Bound" dataDxfId="12">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$33,$A$2:$A$33,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13967,20 +15625,20 @@
   <autoFilter ref="G1:H8" xr:uid="{1F91246C-2F26-43E7-AD66-C817792AE31B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{09F47A8E-4996-4E18-8F23-ED854F034072}" name="Statistic"/>
-    <tableColumn id="2" xr3:uid="{7AC38D9D-B81C-4406-B973-92EAE7C710C8}" name="Value" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7AC38D9D-B81C-4406-B973-92EAE7C710C8}" name="Value" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{34145EB7-FBE8-4E3C-BA3F-75F6EB17DE4B}" name="Table14" displayName="Table14" ref="A1:D66" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{34145EB7-FBE8-4E3C-BA3F-75F6EB17DE4B}" name="Table14" displayName="Table14" ref="A1:D66" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:D66" xr:uid="{55C7C5FF-BF58-4905-B69E-C7F94EE3A837}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{517BE8E7-591D-46F8-B234-3EF76B78A8F9}" name="Timeline" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{1AE710DC-7759-41C5-A500-5EF63D1BA08E}" name="Actuals" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{378540BE-10CE-4A1C-9BD2-ECA3074D046B}" name="FCT0328" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{E9BC202A-278C-4191-A924-F7FD31E1146E}" name="FCT0327" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{517BE8E7-591D-46F8-B234-3EF76B78A8F9}" name="Timeline" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1AE710DC-7759-41C5-A500-5EF63D1BA08E}" name="Actuals" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{378540BE-10CE-4A1C-9BD2-ECA3074D046B}" name="FCT0328" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{E9BC202A-278C-4191-A924-F7FD31E1146E}" name="FCT0327" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$32,$A$2:$A$32,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13992,15 +15650,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7F4E325E-9B44-4284-9987-040E42758C27}" name="Table12" displayName="Table12" ref="A1:E66" totalsRowShown="0">
   <autoFilter ref="A1:E66" xr:uid="{D0C0E5A0-150E-4BC3-9A54-36FD983DE47B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C9B50D03-8250-4543-95CD-EED0624019CD}" name="Timeline" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C9B50D03-8250-4543-95CD-EED0624019CD}" name="Timeline" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{B5B0FC7D-9517-44D6-9EFA-E23CB1F07F14}" name="Values"/>
-    <tableColumn id="3" xr3:uid="{690E0446-C719-4EFF-8C54-EDED600BC934}" name="Forecast" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{690E0446-C719-4EFF-8C54-EDED600BC934}" name="Forecast" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$33,$A$2:$A$33,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{302C5B06-359C-48AD-96B4-88516234CA9D}" name="Lower Confidence Bound" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{302C5B06-359C-48AD-96B4-88516234CA9D}" name="Lower Confidence Bound" dataDxfId="3">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$33,$A$2:$A$33,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B1AF5A24-6EE5-4688-B674-AFA90988AD46}" name="Upper Confidence Bound" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{B1AF5A24-6EE5-4688-B674-AFA90988AD46}" name="Upper Confidence Bound" dataDxfId="2">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$33,$A$2:$A$33,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14013,7 +15671,7 @@
   <autoFilter ref="G1:H8" xr:uid="{E86A0924-9A27-4453-9FD7-C3E173E2122A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{87A794F4-5475-4B4D-932F-D4BAE1311704}" name="Statistic"/>
-    <tableColumn id="2" xr3:uid="{0F5AF389-9B84-4B90-9338-C87DA3DC7DE5}" name="Value" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0F5AF389-9B84-4B90-9338-C87DA3DC7DE5}" name="Value" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14316,11 +15974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A4BEF7-1EBF-4C6F-A5A0-018842EA1507}">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="1" sqref="U23:X33 A23:A33"/>
+      <selection pane="bottomLeft" activeCell="AH1" activeCellId="3" sqref="A1:A1048576 AA1:AA1048576 AG1:AG1048576 AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -14331,13 +15989,13 @@
     <col min="20" max="24" width="5.7109375" style="38" customWidth="1"/>
     <col min="25" max="25" width="5.7109375" style="39" customWidth="1"/>
     <col min="26" max="28" width="5.7109375" style="40" customWidth="1"/>
-    <col min="29" max="33" width="5.7109375" style="38" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" style="10" customWidth="1"/>
-    <col min="36" max="39" width="5.7109375" style="41" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="10"/>
+    <col min="29" max="34" width="5.7109375" style="38" customWidth="1"/>
+    <col min="35" max="36" width="5.7109375" style="10" customWidth="1"/>
+    <col min="37" max="40" width="5.7109375" style="41" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14437,26 +16095,29 @@
       <c r="AG1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>43887</v>
       </c>
@@ -14523,26 +16184,30 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="20">
+      <c r="AH2" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22">
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
-      <c r="AL2" s="22">
+      <c r="AM2" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
-      <c r="AM2" s="23">
+      <c r="AN2" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>43888</v>
       </c>
@@ -14633,26 +16298,30 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="20">
+      <c r="AH3" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22">
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
-      <c r="AL3" s="22">
+      <c r="AM3" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
-      <c r="AM3" s="23">
+      <c r="AN3" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>43889</v>
       </c>
@@ -14743,26 +16412,30 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AH4" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22">
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
-      <c r="AL4" s="22">
+      <c r="AM4" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
-      <c r="AM4" s="23">
+      <c r="AN4" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>43890</v>
       </c>
@@ -14853,26 +16526,30 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AH5" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22">
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>9</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AM5" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
-      <c r="AM5" s="23">
+      <c r="AN5" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>43891</v>
       </c>
@@ -14965,26 +16642,30 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AH6" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22">
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="AL6" s="22">
+      <c r="AM6" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM6" s="23">
+      <c r="AN6" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>43892</v>
       </c>
@@ -15078,23 +16759,27 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22">
+      <c r="AH7" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="AL7" s="22">
+      <c r="AM7" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM7" s="23">
+      <c r="AN7" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>43893</v>
       </c>
@@ -15193,28 +16878,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AH8" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.125</v>
       </c>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="22">
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="22">
         <v>1</v>
       </c>
-      <c r="AK8" s="22">
+      <c r="AL8" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="AL8" s="22">
+      <c r="AM8" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM8" s="23">
+      <c r="AN8" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>43894</v>
       </c>
@@ -15313,28 +17002,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="20">
+      <c r="AH9" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.125</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="22">
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="22">
         <v>2</v>
       </c>
-      <c r="AK9" s="22">
+      <c r="AL9" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="AL9" s="22">
+      <c r="AM9" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM9" s="23">
+      <c r="AN9" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>43895</v>
       </c>
@@ -15438,28 +17131,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AH10" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.1</v>
       </c>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="22">
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="22">
         <v>3</v>
       </c>
-      <c r="AK10" s="22">
+      <c r="AL10" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="AL10" s="22">
+      <c r="AM10" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM10" s="23">
+      <c r="AN10" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>43896</v>
       </c>
@@ -15565,28 +17262,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.16574585635359115</v>
       </c>
-      <c r="AH11" s="20">
+      <c r="AH11" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="22">
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="22">
         <v>4</v>
       </c>
-      <c r="AK11" s="22">
+      <c r="AL11" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="AL11" s="22">
+      <c r="AM11" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM11" s="23">
+      <c r="AN11" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>43897</v>
       </c>
@@ -15692,28 +17393,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.20982142857142858</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="AH12" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.18604651162790697</v>
       </c>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="22">
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="22">
         <v>5</v>
       </c>
-      <c r="AK12" s="22">
+      <c r="AL12" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="AL12" s="22">
+      <c r="AM12" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM12" s="23">
+      <c r="AN12" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>43898</v>
       </c>
@@ -15819,28 +17524,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.199288256227758</v>
       </c>
-      <c r="AH13" s="20">
+      <c r="AH13" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="22">
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="22">
         <v>6</v>
       </c>
-      <c r="AK13" s="22">
+      <c r="AL13" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
-      <c r="AL13" s="22">
+      <c r="AM13" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM13" s="23">
+      <c r="AN13" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>43899</v>
       </c>
@@ -15946,28 +17655,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.19764011799410031</v>
       </c>
-      <c r="AH14" s="20">
+      <c r="AH14" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.15517241379310345</v>
       </c>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="22">
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="22">
         <v>7</v>
       </c>
-      <c r="AK14" s="22">
+      <c r="AL14" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
-      <c r="AL14" s="22">
+      <c r="AM14" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM14" s="23">
+      <c r="AN14" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>43900</v>
       </c>
@@ -16073,28 +17786,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.22133333333333333</v>
       </c>
-      <c r="AH15" s="20">
+      <c r="AH15" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="22">
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="22">
         <v>8</v>
       </c>
-      <c r="AK15" s="22">
+      <c r="AL15" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
-      <c r="AL15" s="22">
+      <c r="AM15" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM15" s="23">
+      <c r="AN15" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>43901</v>
       </c>
@@ -16200,28 +17917,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.17622080679405519</v>
       </c>
-      <c r="AH16" s="20">
+      <c r="AH16" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.1875</v>
       </c>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="22">
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="22">
         <v>9</v>
       </c>
-      <c r="AK16" s="22">
+      <c r="AL16" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
-      <c r="AL16" s="22">
+      <c r="AM16" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM16" s="23">
+      <c r="AN16" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>43902</v>
       </c>
@@ -16327,28 +18048,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.2087912087912088</v>
       </c>
-      <c r="AH17" s="20">
+      <c r="AH17" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.1144578313253012</v>
       </c>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="22">
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="22">
         <v>10</v>
       </c>
-      <c r="AK17" s="22">
+      <c r="AL17" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
-      <c r="AL17" s="22">
+      <c r="AM17" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM17" s="23">
+      <c r="AN17" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>43903</v>
       </c>
@@ -16454,28 +18179,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.13149847094801223</v>
       </c>
-      <c r="AH18" s="20">
+      <c r="AH18" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>5.0670640834575259E-2</v>
       </c>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="22">
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="22">
         <v>11</v>
       </c>
-      <c r="AK18" s="22">
+      <c r="AL18" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
-      <c r="AL18" s="22">
+      <c r="AM18" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM18" s="23">
+      <c r="AN18" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>43904</v>
       </c>
@@ -16583,28 +18312,32 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>7.3943661971830985E-2</v>
       </c>
-      <c r="AH19" s="20">
+      <c r="AH19" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.14393939393939395</v>
       </c>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="22">
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="22">
         <v>12</v>
       </c>
-      <c r="AK19" s="22">
+      <c r="AL19" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
-      <c r="AL19" s="22">
+      <c r="AM19" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM19" s="23">
+      <c r="AN19" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>43905</v>
       </c>
@@ -16720,31 +18453,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.12373403786878027</v>
       </c>
-      <c r="AH20" s="20">
+      <c r="AH20" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.76882430647291944</v>
+      </c>
+      <c r="AI20" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.13403880070546736</v>
       </c>
-      <c r="AI20" s="25">
+      <c r="AJ20" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>4.3528064146620846E-2</v>
       </c>
-      <c r="AJ20" s="22">
+      <c r="AK20" s="22">
         <v>13</v>
       </c>
-      <c r="AK20" s="22">
+      <c r="AL20" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
-      <c r="AL20" s="22">
+      <c r="AM20" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM20" s="23">
+      <c r="AN20" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>43906</v>
       </c>
@@ -16860,31 +18597,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.12861072902338377</v>
       </c>
-      <c r="AH21" s="20">
+      <c r="AH21" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.75756533700137552</v>
+      </c>
+      <c r="AI21" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.13500784929356358</v>
       </c>
-      <c r="AI21" s="25">
+      <c r="AJ21" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.18818380743982493</v>
       </c>
-      <c r="AJ21" s="22">
+      <c r="AK21" s="22">
         <v>14</v>
       </c>
-      <c r="AK21" s="22">
+      <c r="AL21" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
-      <c r="AL21" s="22">
+      <c r="AM21" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM21" s="23">
+      <c r="AN21" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>43907</v>
       </c>
@@ -17000,31 +18741,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>8.0148883374689825E-2</v>
       </c>
-      <c r="AH22" s="20">
+      <c r="AH22" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.80868486352357316</v>
+      </c>
+      <c r="AI22" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.10427807486631016</v>
       </c>
-      <c r="AI22" s="25">
+      <c r="AJ22" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.11079545454545454</v>
       </c>
-      <c r="AJ22" s="22">
+      <c r="AK22" s="22">
         <v>15</v>
       </c>
-      <c r="AK22" s="22">
+      <c r="AL22" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
-      <c r="AL22" s="22">
+      <c r="AM22" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM22" s="23">
+      <c r="AN22" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>43908</v>
       </c>
@@ -17143,31 +18888,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>6.9271758436944941E-2</v>
       </c>
-      <c r="AH23" s="20">
+      <c r="AH23" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.80402605091770274</v>
+      </c>
+      <c r="AI23" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.1870781099324976</v>
       </c>
-      <c r="AI23" s="25">
+      <c r="AJ23" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.23803680981595093</v>
       </c>
-      <c r="AJ23" s="22">
+      <c r="AK23" s="22">
         <v>16</v>
       </c>
-      <c r="AK23" s="22">
+      <c r="AL23" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
-      <c r="AL23" s="22">
+      <c r="AM23" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM23" s="23">
+      <c r="AN23" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>43909</v>
       </c>
@@ -17286,31 +19035,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>8.0514766540174892E-2</v>
       </c>
-      <c r="AH24" s="20">
+      <c r="AH24" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.78996865203761757</v>
+      </c>
+      <c r="AI24" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.14386317907444668</v>
       </c>
-      <c r="AI24" s="25">
+      <c r="AJ24" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.20028011204481794</v>
       </c>
-      <c r="AJ24" s="22">
+      <c r="AK24" s="22">
         <v>17</v>
       </c>
-      <c r="AK24" s="22">
+      <c r="AL24" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
-      <c r="AL24" s="22">
+      <c r="AM24" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM24" s="23">
+      <c r="AN24" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>43910</v>
       </c>
@@ -17429,31 +19182,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.10993274702534919</v>
       </c>
-      <c r="AH25" s="20">
+      <c r="AH25" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.75814795654423173</v>
+      </c>
+      <c r="AI25" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.14063435068821065</v>
       </c>
-      <c r="AI25" s="25">
+      <c r="AJ25" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.21880819366852886</v>
       </c>
-      <c r="AJ25" s="22">
+      <c r="AK25" s="22">
         <v>18</v>
       </c>
-      <c r="AK25" s="22">
+      <c r="AL25" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
-      <c r="AL25" s="22">
+      <c r="AM25" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM25" s="23">
+      <c r="AN25" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>43911</v>
       </c>
@@ -17572,31 +19329,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.10746904810229349</v>
       </c>
-      <c r="AH26" s="20">
+      <c r="AH26" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.76263446316216765</v>
+      </c>
+      <c r="AI26" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.12252591894439209</v>
       </c>
-      <c r="AI26" s="25">
+      <c r="AJ26" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.15728977616454931</v>
       </c>
-      <c r="AJ26" s="22">
+      <c r="AK26" s="22">
         <v>19</v>
       </c>
-      <c r="AK26" s="22">
+      <c r="AL26" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>12</v>
       </c>
-      <c r="AL26" s="22">
+      <c r="AM26" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM26" s="23">
+      <c r="AN26" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>43912</v>
       </c>
@@ -17715,31 +19476,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>9.7801171576534507E-2</v>
       </c>
-      <c r="AH27" s="20">
+      <c r="AH27" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.76636386790050093</v>
+      </c>
+      <c r="AI27" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.16623376623376623</v>
       </c>
-      <c r="AI27" s="25">
+      <c r="AJ27" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.21164021164021163</v>
       </c>
-      <c r="AJ27" s="22">
+      <c r="AK27" s="22">
         <v>20</v>
       </c>
-      <c r="AK27" s="22">
+      <c r="AL27" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>13</v>
       </c>
-      <c r="AL27" s="22">
+      <c r="AM27" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM27" s="23">
+      <c r="AN27" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>43913</v>
       </c>
@@ -17858,31 +19623,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.10253034956852421</v>
       </c>
-      <c r="AH28" s="20">
+      <c r="AH28" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.74681878016673975</v>
+      </c>
+      <c r="AI28" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.24274406332453827</v>
       </c>
-      <c r="AI28" s="25">
+      <c r="AJ28" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.3881856540084388</v>
       </c>
-      <c r="AJ28" s="22">
+      <c r="AK28" s="22">
         <v>21</v>
       </c>
-      <c r="AK28" s="22">
+      <c r="AL28" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>13</v>
       </c>
-      <c r="AL28" s="22">
+      <c r="AM28" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM28" s="23">
+      <c r="AN28" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>43914</v>
       </c>
@@ -18001,31 +19770,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.11522553961483779</v>
       </c>
-      <c r="AH29" s="20">
+      <c r="AH29" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.73213131704795142</v>
+      </c>
+      <c r="AI29" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.16777777777777778</v>
       </c>
-      <c r="AI29" s="25">
+      <c r="AJ29" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.27036705461056398</v>
       </c>
-      <c r="AJ29" s="22">
+      <c r="AK29" s="22">
         <v>22</v>
       </c>
-      <c r="AK29" s="22">
+      <c r="AL29" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>13</v>
       </c>
-      <c r="AL29" s="22">
+      <c r="AM29" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM29" s="23">
+      <c r="AN29" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>43915</v>
       </c>
@@ -18144,31 +19917,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>7.5206806901441742E-2</v>
       </c>
-      <c r="AH30" s="20">
+      <c r="AH30" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.78321909714015603</v>
+      </c>
+      <c r="AI30" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.111424045062489</v>
       </c>
-      <c r="AI30" s="25">
+      <c r="AJ30" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.12080152671755726</v>
       </c>
-      <c r="AJ30" s="22">
+      <c r="AK30" s="22">
         <v>23</v>
       </c>
-      <c r="AK30" s="22">
+      <c r="AL30" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>13</v>
       </c>
-      <c r="AL30" s="22">
+      <c r="AM30" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM30" s="23">
+      <c r="AN30" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>43916</v>
       </c>
@@ -18287,31 +20064,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>8.9589791975558247E-2</v>
       </c>
-      <c r="AH31" s="20">
+      <c r="AH31" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.7511344745473334</v>
+      </c>
+      <c r="AI31" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.49818511796733211</v>
       </c>
-      <c r="AI31" s="25">
+      <c r="AJ31" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>3.6845637583892619</v>
       </c>
-      <c r="AJ31" s="22">
+      <c r="AK31" s="22">
         <v>24</v>
       </c>
-      <c r="AK31" s="22">
+      <c r="AL31" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>13</v>
       </c>
-      <c r="AL31" s="22">
+      <c r="AM31" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM31" s="23">
+      <c r="AN31" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>43917</v>
       </c>
@@ -18430,31 +20211,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.15709173842947582</v>
       </c>
-      <c r="AH32" s="20">
+      <c r="AH32" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.67508159333097406</v>
+      </c>
+      <c r="AI32" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.22810333963453056</v>
       </c>
-      <c r="AI32" s="25">
+      <c r="AJ32" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>1.6088888888888888</v>
       </c>
-      <c r="AJ32" s="22">
+      <c r="AK32" s="22">
         <v>25</v>
       </c>
-      <c r="AK32" s="22">
+      <c r="AL32" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>13</v>
       </c>
-      <c r="AL32" s="22">
+      <c r="AM32" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM32" s="23">
+      <c r="AN32" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>43918</v>
       </c>
@@ -18577,31 +20362,35 @@
         <f>Data[[#This Row],[AL (Acc. Pending Lab)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
         <v>0.1507602124931306</v>
       </c>
-      <c r="AH33" s="20">
+      <c r="AH33" s="16">
+        <f>Data[[#This Row],[AN (Acc. Negatives)]]/Data[[#This Row],[AS (Acc. Suspects)]]</f>
+        <v>0.69139647066007204</v>
+      </c>
+      <c r="AI33" s="20">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNS (Daily New Suspects)]]</f>
         <v>0.12317356274750785</v>
       </c>
-      <c r="AI33" s="25">
+      <c r="AJ33" s="25">
         <f>Data[[#This Row],[DNC (Daily New Confirmed)]]/Data[[#This Row],[DNN (Daily New Negatives)]]</f>
         <v>0.1646586345381526</v>
       </c>
-      <c r="AJ33" s="22">
+      <c r="AK33" s="22">
         <v>26</v>
       </c>
-      <c r="AK33" s="22">
+      <c r="AL33" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>13</v>
       </c>
-      <c r="AL33" s="22">
+      <c r="AM33" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM33" s="23">
+      <c r="AN33" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>43919</v>
       </c>
@@ -18637,23 +20426,24 @@
       <c r="AE34" s="26"/>
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22">
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>14</v>
       </c>
-      <c r="AL34" s="22">
+      <c r="AM34" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM34" s="23">
+      <c r="AN34" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>43920</v>
       </c>
@@ -18689,18 +20479,19 @@
       <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22">
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22">
         <f>WEEKNUM(Data[[#This Row],[Date]])</f>
         <v>14</v>
       </c>
-      <c r="AL35" s="22">
+      <c r="AM35" s="22">
         <f>MONTH(Data[[#This Row],[Date]])</f>
         <v>3</v>
       </c>
-      <c r="AM35" s="23">
+      <c r="AN35" s="23">
         <f>WEEKDAY(Data[[#This Row],[Date]])</f>
         <v>2</v>
       </c>
@@ -18715,12 +20506,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A1FC48-1772-41D0-AA7B-D9F7A743284A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BE9A43-4D21-4AF4-86F1-E52B3AF2C5F6}">
   <dimension ref="A4:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18756,31 +20560,31 @@
         <v>18</v>
       </c>
       <c r="B5" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AL:$AL,Week!B4),0)</f>
         <v>70</v>
       </c>
       <c r="C5" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AL:$AL,Week!C4),0)</f>
         <v>154</v>
       </c>
       <c r="D5" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AL:$AL,Week!D4),0)</f>
         <v>1480</v>
       </c>
       <c r="E5" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AL:$AL,Week!E4),0)</f>
         <v>8150</v>
       </c>
       <c r="F5" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AL:$AL,Week!F4),0)</f>
         <v>22900</v>
       </c>
       <c r="G5" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18789,31 +20593,31 @@
         <v>21</v>
       </c>
       <c r="B6" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AL:$AL,Week!B4),0)</f>
         <v>0</v>
       </c>
       <c r="C6" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AL:$AL,Week!C4),0)</f>
         <v>21</v>
       </c>
       <c r="D6" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AL:$AL,Week!D4),0)</f>
         <v>148</v>
       </c>
       <c r="E6" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AL:$AL,Week!E4),0)</f>
         <v>1111</v>
       </c>
       <c r="F6" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AL:$AL,Week!F4),0)</f>
         <v>3890</v>
       </c>
       <c r="G6" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18822,31 +20626,31 @@
         <v>19</v>
       </c>
       <c r="B7" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AL:$AL,Week!B4),0)</f>
         <v>0</v>
       </c>
       <c r="C7" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AL:$AL,Week!C4),0)</f>
         <v>0</v>
       </c>
       <c r="D7" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AL:$AL,Week!D4),0)</f>
         <v>1</v>
       </c>
       <c r="E7" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AL:$AL,Week!E4),0)</f>
         <v>4</v>
       </c>
       <c r="F7" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AL:$AL,Week!F4),0)</f>
         <v>38</v>
       </c>
       <c r="G7" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18855,31 +20659,31 @@
         <v>20</v>
       </c>
       <c r="B8" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AL:$AL,Week!B4),0)</f>
         <v>0</v>
       </c>
       <c r="C8" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AL:$AL,Week!C4),0)</f>
         <v>0</v>
       </c>
       <c r="D8" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AL:$AL,Week!D4),0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AL:$AL,Week!E4),0)</f>
         <v>12</v>
       </c>
       <c r="F8" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AL:$AL,Week!F4),0)</f>
         <v>88</v>
       </c>
       <c r="G8" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18888,31 +20692,31 @@
         <v>22</v>
       </c>
       <c r="B9" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AL:$AL,Week!B4),0)</f>
         <v>0</v>
       </c>
       <c r="C9" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AL:$AL,Week!C4),0)</f>
         <v>0</v>
       </c>
       <c r="D9" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AL:$AL,Week!D4),0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AL:$AL,Week!E4),0)</f>
         <v>7515</v>
       </c>
       <c r="F9" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AL:$AL,Week!F4),0)</f>
         <v>15131</v>
       </c>
       <c r="G9" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18921,31 +20725,31 @@
         <v>23</v>
       </c>
       <c r="B10" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AL:$AL,Week!B4),0)</f>
         <v>0</v>
       </c>
       <c r="C10" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AL:$AL,Week!C4),0)</f>
         <v>21</v>
       </c>
       <c r="D10" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AL:$AL,Week!D4),0)</f>
         <v>93</v>
       </c>
       <c r="E10" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AL:$AL,Week!E4),0)</f>
         <v>42</v>
       </c>
       <c r="F10" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AL:$AL,Week!F4),0)</f>
         <v>262</v>
       </c>
       <c r="G10" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H10" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18954,31 +20758,31 @@
         <v>24</v>
       </c>
       <c r="B11" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AL:$AL,Week!B4),0)</f>
         <v>0</v>
       </c>
       <c r="C11" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AL:$AL,Week!C4),0)</f>
         <v>0</v>
       </c>
       <c r="D11" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AL:$AL,Week!D4),0)</f>
         <v>10</v>
       </c>
       <c r="E11" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AL:$AL,Week!E4),0)</f>
         <v>25</v>
       </c>
       <c r="F11" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AL:$AL,Week!F4),0)</f>
         <v>54</v>
       </c>
       <c r="G11" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H11" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18987,31 +20791,31 @@
         <v>25</v>
       </c>
       <c r="B12" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AL:$AL,Week!B4),0)</f>
         <v>0</v>
       </c>
       <c r="C12" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AL:$AL,Week!C4),0)</f>
         <v>47</v>
       </c>
       <c r="D12" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AL:$AL,Week!D4),0)</f>
         <v>79</v>
       </c>
       <c r="E12" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AL:$AL,Week!E4),0)</f>
         <v>933</v>
       </c>
       <c r="F12" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AL:$AL,Week!F4),0)</f>
         <v>3879</v>
       </c>
       <c r="G12" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -19020,31 +20824,31 @@
         <v>26</v>
       </c>
       <c r="B13" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AK:$AK,Week!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AL:$AL,Week!B4),0)</f>
         <v>0</v>
       </c>
       <c r="C13" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AK:$AK,Week!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AL:$AL,Week!C4),0)</f>
         <v>412</v>
       </c>
       <c r="D13" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AK:$AK,Week!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AL:$AL,Week!D4),0)</f>
         <v>4599</v>
       </c>
       <c r="E13" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AK:$AK,Week!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AL:$AL,Week!E4),0)</f>
         <v>8144</v>
       </c>
       <c r="F13" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AK:$AK,Week!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AL:$AL,Week!F4),0)</f>
         <v>6772</v>
       </c>
       <c r="G13" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AK:$AK,Week!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AL:$AL,Week!G4),0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AK:$AK,Week!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AL:$AL,Week!H4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -19471,7 +21275,7 @@
   <dimension ref="A4:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19531,31 +21335,31 @@
         <v>18</v>
       </c>
       <c r="B6" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>2590</v>
       </c>
       <c r="C6" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>2974</v>
       </c>
       <c r="D6" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>6855</v>
       </c>
       <c r="E6" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>2318</v>
       </c>
       <c r="F6" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>5558</v>
       </c>
       <c r="G6" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>9895</v>
       </c>
       <c r="H6" s="59">
-        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$K:$K,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>2564</v>
       </c>
     </row>
@@ -19564,31 +21368,31 @@
         <v>21</v>
       </c>
       <c r="B7" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>557</v>
       </c>
       <c r="C7" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>423</v>
       </c>
       <c r="D7" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>847</v>
       </c>
       <c r="E7" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>714</v>
       </c>
       <c r="F7" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>997</v>
       </c>
       <c r="G7" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>1227</v>
       </c>
       <c r="H7" s="59">
-        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$L:$L,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>405</v>
       </c>
     </row>
@@ -19597,31 +21401,31 @@
         <v>19</v>
       </c>
       <c r="B8" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>10</v>
       </c>
       <c r="C8" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>8</v>
       </c>
       <c r="D8" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>21</v>
       </c>
       <c r="F8" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>2</v>
       </c>
       <c r="G8" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>1</v>
       </c>
       <c r="H8" s="59">
-        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$M:$M,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19630,31 +21434,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>9</v>
       </c>
       <c r="C9" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>11</v>
       </c>
       <c r="D9" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>11</v>
       </c>
       <c r="E9" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>18</v>
       </c>
       <c r="F9" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>19</v>
       </c>
       <c r="G9" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>30</v>
       </c>
       <c r="H9" s="59">
-        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$N:$N,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>2</v>
       </c>
     </row>
@@ -19663,31 +21467,31 @@
         <v>22</v>
       </c>
       <c r="B10" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>1642</v>
       </c>
       <c r="C10" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>2173</v>
       </c>
       <c r="D10" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>6055</v>
       </c>
       <c r="E10" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>863</v>
       </c>
       <c r="F10" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>1524</v>
       </c>
       <c r="G10" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>7131</v>
       </c>
       <c r="H10" s="59">
-        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$O:$O,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>3258</v>
       </c>
     </row>
@@ -19696,31 +21500,31 @@
         <v>23</v>
       </c>
       <c r="B11" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>40</v>
       </c>
       <c r="C11" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>71</v>
       </c>
       <c r="D11" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>-27</v>
       </c>
       <c r="E11" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>-64</v>
       </c>
       <c r="F11" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>242</v>
       </c>
       <c r="G11" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>109</v>
       </c>
       <c r="H11" s="59">
-        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$P:$P,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>47</v>
       </c>
     </row>
@@ -19729,31 +21533,31 @@
         <v>24</v>
       </c>
       <c r="B12" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>15</v>
       </c>
       <c r="C12" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>0</v>
       </c>
       <c r="D12" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>16</v>
       </c>
       <c r="E12" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>0</v>
       </c>
       <c r="F12" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>16</v>
       </c>
       <c r="G12" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>37</v>
       </c>
       <c r="H12" s="59">
-        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$Q:$Q,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>5</v>
       </c>
     </row>
@@ -19762,31 +21566,31 @@
         <v>25</v>
       </c>
       <c r="B13" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>354</v>
       </c>
       <c r="C13" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>346</v>
       </c>
       <c r="D13" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>-164</v>
       </c>
       <c r="E13" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>590</v>
       </c>
       <c r="F13" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>2432</v>
       </c>
       <c r="G13" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>1123</v>
       </c>
       <c r="H13" s="59">
-        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$R:$R,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>257</v>
       </c>
     </row>
@@ -19795,31 +21599,31 @@
         <v>26</v>
       </c>
       <c r="B14" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AM:$AM,Weekday!B4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AN:$AN,Weekday!B4),0)</f>
         <v>-756</v>
       </c>
       <c r="C14" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AM:$AM,Weekday!C4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AN:$AN,Weekday!C4),0)</f>
         <v>2532</v>
       </c>
       <c r="D14" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AM:$AM,Weekday!D4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AN:$AN,Weekday!D4),0)</f>
         <v>3965</v>
       </c>
       <c r="E14" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AM:$AM,Weekday!E4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AN:$AN,Weekday!E4),0)</f>
         <v>4794</v>
       </c>
       <c r="F14" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AM:$AM,Weekday!F4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AN:$AN,Weekday!F4),0)</f>
         <v>6631</v>
       </c>
       <c r="G14" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AM:$AM,Weekday!G4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AN:$AN,Weekday!G4),0)</f>
         <v>3653</v>
       </c>
       <c r="H14" s="59">
-        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AM:$AM,Weekday!H4),0)</f>
+        <f>IFERROR(SUMIFS(Data!$S:$S,Data!$AN:$AN,Weekday!H4),0)</f>
         <v>-892</v>
       </c>
     </row>
@@ -23670,7 +25474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19627BE-9E30-476B-B050-C456CF349742}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
